--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.2006</v>
+        <v>15.31649999999999</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.2469</v>
+        <v>-13.1389</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6372</v>
+        <v>-10.8906</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1269</v>
+        <v>16.0997</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.3363</v>
+        <v>-12.12949999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.7822</v>
+        <v>15.8534</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.20780000000002</v>
+        <v>16.97750000000001</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5387</v>
+        <v>15.59519999999999</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.0048</v>
+        <v>15.9646</v>
       </c>
     </row>
     <row r="32">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.97189999999999</v>
+        <v>-14.11409999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.1862</v>
+        <v>17.21710000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.31409999999999</v>
+        <v>-13.38859999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,13 +1590,13 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.1759</v>
+        <v>-11.2613</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>16.9958</v>
+        <v>17.14580000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.18679999999999</v>
+        <v>16.12359999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.9843</v>
+        <v>-11.6604</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.08050000000001</v>
+        <v>-11.98850000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.1812</v>
+        <v>16.21579999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.34980000000001</v>
+        <v>16.3717</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.14629999999999</v>
+        <v>16.27839999999998</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.5282</v>
+        <v>15.43840000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.8552</v>
+        <v>16.74650000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.6967</v>
+        <v>16.701</v>
       </c>
     </row>
   </sheetData>
